--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value155.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value155.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.661522783017118</v>
+        <v>2.642214298248291</v>
       </c>
       <c r="B1">
-        <v>2.403363863777902</v>
+        <v>4.576918125152588</v>
       </c>
       <c r="C1">
-        <v>2.412195063092468</v>
+        <v>3.535986185073853</v>
       </c>
       <c r="D1">
-        <v>1.508768782157022</v>
+        <v>3.363679170608521</v>
       </c>
       <c r="E1">
-        <v>0.6205404373164247</v>
+        <v>2.124365329742432</v>
       </c>
     </row>
   </sheetData>
